--- a/38_Tables_2/homework/18_6.xlsx
+++ b/38_Tables_2/homework/18_6.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grigo\OneDrive\Рабочий стол\Обработка электронных таблиц III\Задание 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\38_Tables_2\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D79646D-F61C-48DA-9261-F1C9E4BE864A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8796"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,16 +23,55 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Действия</t>
+  </si>
+  <si>
+    <t>Вправо</t>
+  </si>
+  <si>
+    <t>Вниз</t>
+  </si>
+  <si>
+    <t> брать монеты только с тех клеток, где количество монет кратно 7</t>
+  </si>
+  <si>
+    <t>из левой верхней клетки в правую нижнюю</t>
+  </si>
+  <si>
+    <t>МИН</t>
+  </si>
+  <si>
+    <t>МАКС</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -152,6 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -431,16 +472,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>88</v>
       </c>
@@ -474,7 +515,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>86</v>
       </c>
@@ -507,7 +548,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>55</v>
       </c>
@@ -540,7 +581,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>66</v>
       </c>
@@ -573,7 +614,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>41</v>
       </c>
@@ -597,6 +638,9 @@
       </c>
       <c r="H5" s="7">
         <v>71</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -606,7 +650,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>18</v>
       </c>
@@ -639,7 +683,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>84</v>
       </c>
@@ -663,6 +707,9 @@
       </c>
       <c r="H7" s="7">
         <v>49</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -672,7 +719,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>71</v>
       </c>
@@ -696,6 +743,9 @@
       </c>
       <c r="H8" s="10">
         <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -705,7 +755,10 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -714,6 +767,293 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f>IF(MOD(A1,7)=0,A1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <f>A10+IF(MOD(B1,7)=0,B1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ref="C10:H10" si="0">B10+IF(MOD(C1,7)=0,C1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>A10+IF(MOD(A2,7)=0,A2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="6">
+        <f>MAX(A11,B10)+IF(MOD(B2,7)=0,B2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <f>MAX(B11,C10)+IF(MOD(C2,7)=0,C2,0)</f>
+        <v>56</v>
+      </c>
+      <c r="D11" s="6">
+        <f>MAX(C11,D10)+IF(MOD(D2,7)=0,D2,0)</f>
+        <v>56</v>
+      </c>
+      <c r="E11" s="6">
+        <f>MAX(D11,E10)+IF(MOD(E2,7)=0,E2,0)</f>
+        <v>77</v>
+      </c>
+      <c r="F11" s="6">
+        <f>MAX(E11,F10)+IF(MOD(F2,7)=0,F2,0)</f>
+        <v>77</v>
+      </c>
+      <c r="G11" s="6">
+        <f>MAX(F11,G10)+IF(MOD(G2,7)=0,G2,0)</f>
+        <v>77</v>
+      </c>
+      <c r="H11" s="6">
+        <f>MAX(G11,H10)+IF(MOD(H2,7)=0,H2,0)</f>
+        <v>77</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" ref="A12:A17" si="1">A11+IF(MOD(A3,7)=0,A3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="6">
+        <f>MAX(A12,B11)+IF(MOD(B3,7)=0,B3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <f>MAX(B12,C11)+IF(MOD(C3,7)=0,C3,0)</f>
+        <v>56</v>
+      </c>
+      <c r="D12" s="6">
+        <f>MAX(C12,D11)+IF(MOD(D3,7)=0,D3,0)</f>
+        <v>56</v>
+      </c>
+      <c r="E12" s="6">
+        <f>MAX(D12,E11)+IF(MOD(E3,7)=0,E3,0)</f>
+        <v>77</v>
+      </c>
+      <c r="F12" s="6">
+        <f>MAX(E12,F11)+IF(MOD(F3,7)=0,F3,0)</f>
+        <v>77</v>
+      </c>
+      <c r="G12" s="6">
+        <f>MAX(F12,G11)+IF(MOD(G3,7)=0,G3,0)</f>
+        <v>161</v>
+      </c>
+      <c r="H12" s="6">
+        <f>MAX(G12,H11)+IF(MOD(H3,7)=0,H3,0)</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="6">
+        <f>MAX(A13,B12)+IF(MOD(B4,7)=0,B4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <f>MAX(B13,C12)+IF(MOD(C4,7)=0,C4,0)</f>
+        <v>56</v>
+      </c>
+      <c r="D13" s="6">
+        <f>MAX(C13,D12)+IF(MOD(D4,7)=0,D4,0)</f>
+        <v>56</v>
+      </c>
+      <c r="E13" s="6">
+        <f>MAX(D13,E12)+IF(MOD(E4,7)=0,E4,0)</f>
+        <v>77</v>
+      </c>
+      <c r="F13" s="6">
+        <f>MAX(E13,F12)+IF(MOD(F4,7)=0,F4,0)</f>
+        <v>77</v>
+      </c>
+      <c r="G13" s="6">
+        <f>MAX(F13,G12)+IF(MOD(G4,7)=0,G4,0)</f>
+        <v>161</v>
+      </c>
+      <c r="H13" s="6">
+        <f>MAX(G13,H12)+IF(MOD(H4,7)=0,H4,0)</f>
+        <v>210</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B14" s="6">
+        <f>MAX(A14,B13)+IF(MOD(B5,7)=0,B5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <f>MAX(B14,C13)+IF(MOD(C5,7)=0,C5,0)</f>
+        <v>56</v>
+      </c>
+      <c r="D14" s="6">
+        <f>MAX(C14,D13)+IF(MOD(D5,7)=0,D5,0)</f>
+        <v>56</v>
+      </c>
+      <c r="E14" s="6">
+        <f>MAX(D14,E13)+IF(MOD(E5,7)=0,E5,0)</f>
+        <v>77</v>
+      </c>
+      <c r="F14" s="6">
+        <f>MAX(E14,F13)+IF(MOD(F5,7)=0,F5,0)</f>
+        <v>77</v>
+      </c>
+      <c r="G14" s="6">
+        <f>MAX(F14,G13)+IF(MOD(G5,7)=0,G5,0)</f>
+        <v>161</v>
+      </c>
+      <c r="H14" s="6">
+        <f>MAX(G14,H13)+IF(MOD(H5,7)=0,H5,0)</f>
+        <v>210</v>
+      </c>
+      <c r="L14">
+        <v>21</v>
+      </c>
+      <c r="N14">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="6">
+        <f>MAX(A15,B14)+IF(MOD(B6,7)=0,B6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <f>MAX(B15,C14)+IF(MOD(C6,7)=0,C6,0)</f>
+        <v>56</v>
+      </c>
+      <c r="D15" s="6">
+        <f>MAX(C15,D14)+IF(MOD(D6,7)=0,D6,0)</f>
+        <v>56</v>
+      </c>
+      <c r="E15" s="6">
+        <f>MAX(D15,E14)+IF(MOD(E6,7)=0,E6,0)</f>
+        <v>77</v>
+      </c>
+      <c r="F15" s="6">
+        <f>MAX(E15,F14)+IF(MOD(F6,7)=0,F6,0)</f>
+        <v>77</v>
+      </c>
+      <c r="G15" s="6">
+        <f>MAX(F15,G14)+IF(MOD(G6,7)=0,G6,0)</f>
+        <v>161</v>
+      </c>
+      <c r="H15" s="6">
+        <f>MAX(G15,H14)+IF(MOD(H6,7)=0,H6,0)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B16" s="6">
+        <f>MAX(A16,B15)+IF(MOD(B7,7)=0,B7,0)</f>
+        <v>84</v>
+      </c>
+      <c r="C16" s="6">
+        <f>MAX(B16,C15)+IF(MOD(C7,7)=0,C7,0)</f>
+        <v>126</v>
+      </c>
+      <c r="D16" s="6">
+        <f>MAX(C16,D15)+IF(MOD(D7,7)=0,D7,0)</f>
+        <v>126</v>
+      </c>
+      <c r="E16" s="6">
+        <f>MAX(D16,E15)+IF(MOD(E7,7)=0,E7,0)</f>
+        <v>126</v>
+      </c>
+      <c r="F16" s="6">
+        <f>MAX(E16,F15)+IF(MOD(F7,7)=0,F7,0)</f>
+        <v>126</v>
+      </c>
+      <c r="G16" s="6">
+        <f>MAX(F16,G15)+IF(MOD(G7,7)=0,G7,0)</f>
+        <v>161</v>
+      </c>
+      <c r="H16" s="6">
+        <f>MAX(G16,H15)+IF(MOD(H7,7)=0,H7,0)</f>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B17" s="6">
+        <f>MAX(A17,B16)+IF(MOD(B8,7)=0,B8,0)</f>
+        <v>84</v>
+      </c>
+      <c r="C17" s="6">
+        <f>MAX(B17,C16)+IF(MOD(C8,7)=0,C8,0)</f>
+        <v>126</v>
+      </c>
+      <c r="D17" s="6">
+        <f>MAX(C17,D16)+IF(MOD(D8,7)=0,D8,0)</f>
+        <v>126</v>
+      </c>
+      <c r="E17" s="6">
+        <f>MAX(D17,E16)+IF(MOD(E8,7)=0,E8,0)</f>
+        <v>126</v>
+      </c>
+      <c r="F17" s="6">
+        <f>MAX(E17,F16)+IF(MOD(F8,7)=0,F8,0)</f>
+        <v>189</v>
+      </c>
+      <c r="G17" s="6">
+        <f>MAX(F17,G16)+IF(MOD(G8,7)=0,G8,0)</f>
+        <v>210</v>
+      </c>
+      <c r="H17" s="6">
+        <f>MAX(G17,H16)+IF(MOD(H8,7)=0,H8,0)</f>
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
